--- a/702/702-testcase.xlsx
+++ b/702/702-testcase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,233 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>Number of times</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Verifier</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Hiển thị tin tức</t>
+  </si>
+  <si>
+    <t>- Nếu dữ liệu là danh sách: hiển thị thông báo: "Data not found"</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>VVC</t>
+  </si>
+  <si>
+    <t>Created date</t>
+  </si>
+  <si>
+    <t>8/23/2017</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Review date</t>
+  </si>
+  <si>
+    <t>Public date</t>
+  </si>
+  <si>
+    <t>- Tiêu đề: Đây là nội dung tiêu đề hiển thị</t>
+  </si>
+  <si>
+    <r>
+      <t>- Database không có d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u
+- Hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> trong tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ườ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>p không có d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +243,92 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -40,18 +336,526 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="標準_(新)機能仕様書＿7.3.1.8.商品マスタ登録(実用）" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +1145,1115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:61">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="3"/>
+    </row>
+    <row r="2" spans="1:61">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="3"/>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="25"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="3"/>
+    </row>
+    <row r="4" spans="1:61">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="30"/>
+      <c r="BI4" s="1"/>
+    </row>
+    <row r="5" spans="1:61">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+    </row>
+    <row r="6" spans="1:61">
+      <c r="A6" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="45"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="4"/>
+    </row>
+    <row r="7" spans="1:61" ht="15.75">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="5"/>
+    </row>
+    <row r="8" spans="1:61" ht="25.5">
+      <c r="A8" s="69">
+        <v>1</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="81"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="47"/>
+      <c r="AZ8" s="48"/>
+      <c r="BA8" s="36"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="37"/>
+      <c r="BG8" s="37"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="6"/>
+    </row>
+    <row r="9" spans="1:61" ht="25.5">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
+      <c r="AL9" s="88"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="51"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="51"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53"/>
+      <c r="BF9" s="53"/>
+      <c r="BG9" s="53"/>
+      <c r="BH9" s="54"/>
+      <c r="BI9" s="6"/>
+    </row>
+    <row r="10" spans="1:61" ht="25.5">
+      <c r="A10" s="69">
+        <v>1</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="80"/>
+      <c r="AK10" s="80"/>
+      <c r="AL10" s="80"/>
+      <c r="AM10" s="81"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="47"/>
+      <c r="AZ10" s="48"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="6"/>
+    </row>
+    <row r="11" spans="1:61" ht="25.5">
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="88"/>
+      <c r="AK11" s="88"/>
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="51"/>
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="51"/>
+      <c r="BA11" s="52"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="53"/>
+      <c r="BH11" s="54"/>
+      <c r="BI11" s="6"/>
+    </row>
+    <row r="12" spans="1:61" ht="25.5">
+      <c r="A12" s="69">
+        <v>1</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="80"/>
+      <c r="AL12" s="80"/>
+      <c r="AM12" s="81"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="47"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="37"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="6"/>
+    </row>
+    <row r="13" spans="1:61" ht="25.5">
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="88"/>
+      <c r="AJ13" s="88"/>
+      <c r="AK13" s="88"/>
+      <c r="AL13" s="88"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="53"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="6"/>
+    </row>
+    <row r="14" spans="1:61" ht="25.5">
+      <c r="A14" s="69">
+        <v>1</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="37"/>
+      <c r="BG14" s="37"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="6"/>
+    </row>
+    <row r="15" spans="1:61" ht="25.5">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="83"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="49"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="52"/>
+      <c r="BB15" s="53"/>
+      <c r="BC15" s="53"/>
+      <c r="BD15" s="53"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="53"/>
+      <c r="BG15" s="53"/>
+      <c r="BH15" s="54"/>
+      <c r="BI15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="AN14:AQ15"/>
+    <mergeCell ref="AR14:AT15"/>
+    <mergeCell ref="AU14:AW15"/>
+    <mergeCell ref="AX14:AZ15"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AN12:AQ13"/>
+    <mergeCell ref="AC14:AM15"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="H10:L11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="T14:AB15"/>
+    <mergeCell ref="AU10:AW11"/>
+    <mergeCell ref="AX10:AZ11"/>
+    <mergeCell ref="AN10:AQ11"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="T10:AB11"/>
+    <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="BA15:BH15"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="H3:AI4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="T6:AB7"/>
+    <mergeCell ref="AC6:AM7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="H8:L9"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="T8:AB9"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="H12:L13"/>
+    <mergeCell ref="M12:S13"/>
+    <mergeCell ref="AR10:AT11"/>
+    <mergeCell ref="BA10:BH10"/>
+    <mergeCell ref="BA11:BH11"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="BA14:BH14"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="BA8:BH8"/>
+    <mergeCell ref="AR6:AT7"/>
+    <mergeCell ref="AU6:AW7"/>
+    <mergeCell ref="AX6:AZ7"/>
+    <mergeCell ref="AN6:AQ7"/>
+    <mergeCell ref="BA6:BH7"/>
+    <mergeCell ref="AR8:AT9"/>
+    <mergeCell ref="AU8:AW9"/>
+    <mergeCell ref="AX8:AZ9"/>
+    <mergeCell ref="AN8:AQ9"/>
+    <mergeCell ref="BA9:BH9"/>
+    <mergeCell ref="AC8:AM9"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BH2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>